--- a/src/assets/form/Nguyên nhân dừng máy.xlsx
+++ b/src/assets/form/Nguyên nhân dừng máy.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANA\Desktop\QCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Set up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E7B805E-42B9-4F25-B0D6-EEEC2E13FF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A6C37EF-E6F0-4219-99A6-91DE1E6108A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14B5FB53-ADE8-45D5-B27D-09017F30C9D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{14B5FB53-ADE8-45D5-B27D-09017F30C9D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -81,7 +70,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8CA99AE5-6304-4710-AEE3-59B8BA62E9B8}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6FA74371-B81F-4DD8-952D-FA60447D5FC1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Điền vào các trạng thái thiết bị dừng, chờ ,tắt máy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8CA99AE5-6304-4710-AEE3-59B8BA62E9B8}">
       <text>
         <r>
           <rPr>
@@ -102,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>STT</t>
   </si>
@@ -114,6 +116,9 @@
   </si>
   <si>
     <t>Thiết bị</t>
+  </si>
+  <si>
+    <t>Trạng thái thiết bị</t>
   </si>
 </sst>
 </file>
@@ -169,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -312,11 +317,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -342,6 +373,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,22 +713,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692337D9-6090-4CE2-8041-6B38A052FA37}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" customWidth="1"/>
+    <col min="3" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -702,123 +739,145 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="11"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="11"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="11"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="11"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="11"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="11"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="11"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="11"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="11"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="11"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="11"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="11"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="11"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="11"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="11"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="11"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
